--- a/ArduinoCode/data analytics/ScareSurvey.xlsx
+++ b/ArduinoCode/data analytics/ScareSurvey.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Desktop\Skole\G1P4\ArduinoCode\data analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15870C8D-9599-4D89-B9AD-BEBBF15CE22F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6DE31-269E-4BD3-8432-295CFEFB47D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4F5D964-F6EF-44F9-97B0-D9E4909CA14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A4F5D964-F6EF-44F9-97B0-D9E4909CA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId3"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>fear1</t>
   </si>
@@ -92,12 +95,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,10 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B339BB0-9D8D-43E1-B536-ADEF05DE8822}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:N27"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1671,8 +1681,20 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -2556,178 +2578,178 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2">
         <v>4</v>
       </c>
       <c r="H50" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J50" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L50" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M50" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N50" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E51" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H51" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K51" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M51" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N51" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
       </c>
       <c r="D52" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2">
         <v>8</v>
       </c>
       <c r="H52" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I52" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L52" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N52" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2">
         <v>8</v>
       </c>
       <c r="H53" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I53" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J53" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K53" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L53" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M53" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N53" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2735,87 +2757,3832 @@
         <v>2</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H54" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J54" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K54" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M54" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N54" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H55" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I55" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J55" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K55" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L55" s="2">
         <v>5</v>
       </c>
       <c r="M55" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N55" s="2">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2">
+        <v>7</v>
+      </c>
+      <c r="J56" s="2">
+        <v>10</v>
+      </c>
+      <c r="K56" s="2">
+        <v>10</v>
+      </c>
+      <c r="L56" s="2">
+        <v>5</v>
+      </c>
+      <c r="M56" s="2">
+        <v>9</v>
+      </c>
+      <c r="N56" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E38692-92FC-4E0F-ABF3-C1EAD40305A7}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J1" activeCellId="4" sqref="B1:B56 D1:D56 F1:F56 H1:H56 J1:J56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2">
+        <v>4</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2">
+        <v>6</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>9</v>
+      </c>
+      <c r="H49" s="2">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2">
+        <v>8</v>
+      </c>
+      <c r="J49" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4</v>
+      </c>
+      <c r="J50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2">
+        <v>9</v>
+      </c>
+      <c r="H52" s="2">
+        <v>8</v>
+      </c>
+      <c r="I52" s="2">
+        <v>9</v>
+      </c>
+      <c r="J52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7</v>
+      </c>
+      <c r="H53" s="2">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2">
+        <v>7</v>
+      </c>
+      <c r="J53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2">
+        <v>9</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8</v>
+      </c>
+      <c r="I54" s="2">
+        <v>9</v>
+      </c>
+      <c r="J54" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4</v>
+      </c>
+      <c r="G55" s="2">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2">
+        <v>9</v>
+      </c>
+      <c r="J56" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41264969-7A50-4149-9541-D293C0BB4ED0}">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC510D7-F798-4648-8A7F-914C7B7953BC}">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
